--- a/filename1.xlsx
+++ b/filename1.xlsx
@@ -64,10 +64,10 @@
     <t>9000662075</t>
   </si>
   <si>
-    <t>17278.94</t>
-  </si>
-  <si>
-    <t>20734.72</t>
+    <t>17278,94</t>
+  </si>
+  <si>
+    <t>20734,72</t>
   </si>
   <si>
     <t>EUR</t>
@@ -103,10 +103,10 @@
     <t>9000000002</t>
   </si>
   <si>
-    <t>295.12</t>
-  </si>
-  <si>
-    <t>354.15</t>
+    <t>295,12</t>
+  </si>
+  <si>
+    <t>354,15</t>
   </si>
   <si>
     <t>03/02/2020</t>
